--- a/10-06-24 to 10-12-24 Madison Schedule.xlsx
+++ b/10-06-24 to 10-12-24 Madison Schedule.xlsx
@@ -729,7 +729,7 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>PAPER/PENCIL (NO MACHS NEEDED HERE)</t>
+          <t>DANE COUNTY HIGHWAY PARTS, MADISON</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -780,7 +780,7 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>DON'T NEED TO WEAR A BADGER SHIRT HERE, WORK IN TEAMS OF 2</t>
+          <t>2302 FISH HATCHERY RD</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -788,7 +788,7 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>*SALE INVENTORY</t>
+          <t>DHILLON'S STATION 60 LLC, GRAFTON</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
@@ -831,7 +831,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>DANE COUNTY HIGHWAY PARTS, MADISON</t>
+          <t>https://goo.gl/maps/jQ1GffTEQFv</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -839,7 +839,7 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>DHILLON'S STATION 60 LLC, GRAFTON</t>
+          <t>1185 N PORT WASHINGTON RD</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
@@ -882,7 +882,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>2302 FISH HATCHERY RD</t>
+          <t>*IL Meet is 6:15 am at IL Office</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -890,7 +890,7 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>1185 N PORT WASHINGTON RD</t>
+          <t>https://maps.app.goo.gl/j6V8me3CPcLfC84u6</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
@@ -933,7 +933,7 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/jQ1GffTEQFv</t>
+          <t>6:45 am meet for Sarah &amp; Aivy at Wayside Park</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -941,7 +941,7 @@
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/j6V8me3CPcLfC84u6</t>
+          <t>4:00 am meet for Sarah &amp; Aivy at Wayside Park</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
@@ -976,7 +976,7 @@
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>*IL Meet is 6:15 am at IL Office</t>
+          <t>PAPER/PENCIL (NO MACHS NEEDED HERE)</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
@@ -984,7 +984,7 @@
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
-          <t>4:00 am meet for Sarah &amp; Aivy at Wayside Park</t>
+          <t>*Extra machine bag here in case Cedarburg Dhillons is needed to help at all after their store (DJ is sup there)</t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
@@ -1043,7 +1043,7 @@
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>6:45 am meet for Sarah &amp; Aivy at Wayside Park</t>
+          <t>DON'T NEED TO WEAR A BADGER SHIRT HERE, WORK IN TEAMS OF 2</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
@@ -1051,7 +1051,7 @@
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
-          <t>*Extra machine bag here in case Cedarburg Dhillons is needed to help at all after their store (DJ is sup there)</t>
+          <t>*SALE INVENTORY</t>
         </is>
       </c>
       <c r="O15" t="inlineStr"/>

--- a/10-06-24 to 10-12-24 Madison Schedule.xlsx
+++ b/10-06-24 to 10-12-24 Madison Schedule.xlsx
@@ -780,7 +780,7 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2302 FISH HATCHERY RD</t>
+          <t>PAPER/PENCIL (NO MACHS NEEDED HERE)</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -831,7 +831,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/jQ1GffTEQFv</t>
+          <t>2302 FISH HATCHERY RD</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -882,7 +882,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>*IL Meet is 6:15 am at IL Office</t>
+          <t>https://goo.gl/maps/jQ1GffTEQFv</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -933,7 +933,7 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>6:45 am meet for Sarah &amp; Aivy at Wayside Park</t>
+          <t>*IL Meet is 6:15 am at IL Office</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -976,7 +976,7 @@
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>PAPER/PENCIL (NO MACHS NEEDED HERE)</t>
+          <t>6:45 am meet for Sarah &amp; Aivy at Wayside Park</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>

--- a/10-06-24 to 10-12-24 Madison Schedule.xlsx
+++ b/10-06-24 to 10-12-24 Madison Schedule.xlsx
@@ -729,7 +729,7 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>DANE COUNTY HIGHWAY PARTS, MADISON</t>
+          <t>PAPER/PENCIL (NO MACHS NEEDED HERE)</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -780,7 +780,7 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>PAPER/PENCIL (NO MACHS NEEDED HERE)</t>
+          <t>DANE COUNTY HIGHWAY PARTS, MADISON</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>

--- a/10-06-24 to 10-12-24 Madison Schedule.xlsx
+++ b/10-06-24 to 10-12-24 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y85"/>
+  <dimension ref="A1:Y86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -737,7 +737,7 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
@@ -1079,7 +1079,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Driver, Corolla</t>
+          <t>Driver, Camry 3</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -1254,10 +1254,15 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr"/>
+          <t>Jenny</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1st Financial,
+work w/ Nate</t>
+        </is>
+      </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
@@ -1320,7 +1325,8 @@
       <c r="W18" t="inlineStr">
         <is>
           <t>Driver,
-Gray Van</t>
+Gray Van,
+Trainer</t>
         </is>
       </c>
       <c r="X18" t="inlineStr"/>
@@ -1350,7 +1356,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -1405,7 +1411,11 @@
           <t>Anisha</t>
         </is>
       </c>
-      <c r="W19" t="inlineStr"/>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
     </row>
@@ -1433,15 +1443,10 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Driver,
-Silver Van</t>
-        </is>
-      </c>
+          <t>Josh S</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
@@ -1530,10 +1535,15 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Lorena</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Driver,
+Silver Van</t>
+        </is>
+      </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
@@ -1617,7 +1627,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Makeda</t>
+          <t>Lorena</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
@@ -1692,15 +1702,10 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Driver,
-Optima</t>
-        </is>
-      </c>
+          <t>Makeda</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
@@ -1763,9 +1768,23 @@
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima,
+Trainer</t>
+        </is>
+      </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
@@ -1794,10 +1813,14 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr"/>
+          <t>Jenny</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>3rd Financial, work w/ Michael</t>
+        </is>
+      </c>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
@@ -1806,10 +1829,14 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="W24" t="inlineStr"/>
+          <t>Jenny</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>4th Financial, work w/ Angela</t>
+        </is>
+      </c>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
     </row>
@@ -1841,7 +1868,7 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="S25" t="inlineStr"/>
@@ -1853,7 +1880,7 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="W25" t="inlineStr"/>
@@ -1866,11 +1893,7 @@
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
@@ -1892,15 +1915,10 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Gray Van</t>
-        </is>
-      </c>
+          <t>Josh S</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
@@ -1909,7 +1927,7 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Lorena</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="W26" t="inlineStr"/>
@@ -1924,7 +1942,7 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -1952,10 +1970,15 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Keilah</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Gray Van</t>
+        </is>
+      </c>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
@@ -1964,14 +1987,10 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Lorena</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
     </row>
@@ -1983,7 +2002,7 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>KELLEY #54, LAKE GENEVA MOBIL</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
@@ -2023,10 +2042,14 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>Makeda</t>
-        </is>
-      </c>
-      <c r="W28" t="inlineStr"/>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
     </row>
@@ -2038,7 +2061,7 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>350 N EDWARDS BLVD</t>
+          <t>KELLEY #54, LAKE GENEVA MOBIL</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
@@ -2082,14 +2105,10 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="W29" t="inlineStr">
-        <is>
-          <t>Driver</t>
-        </is>
-      </c>
+          <t>Makeda</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
     </row>
@@ -2101,7 +2120,7 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/TTcKoRubQafC34nS9</t>
+          <t>350 N EDWARDS BLVD</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -2141,12 +2160,12 @@
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>Seth</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver</t>
         </is>
       </c>
       <c r="X30" t="inlineStr"/>
@@ -2160,7 +2179,7 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>*IL Meet is 5:30 am at IL Office</t>
+          <t>https://goo.gl/maps/TTcKoRubQafC34nS9</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -2194,13 +2213,26 @@
       <c r="S31" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Silver Van</t>
+Silver Van,
+Trainer</t>
         </is>
       </c>
       <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Seth</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>@ Store, 1st Festival, work w/ Anisha</t>
+        </is>
+      </c>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
     </row>
@@ -2212,7 +2244,7 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>4:30 am meet for Sarah &amp; Aivy at Wayside Park</t>
+          <t>*IL Meet is 5:30 am at IL Office</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -2245,7 +2277,11 @@
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4:30 am meet for Sarah &amp; Aivy at Wayside Park</t>
+        </is>
+      </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
@@ -2274,11 +2310,7 @@
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="V33" t="inlineStr"/>
       <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
@@ -2288,21 +2320,9 @@
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>Driver, Equip</t>
-        </is>
-      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
@@ -2347,7 +2367,7 @@
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W34" t="inlineStr"/>
@@ -2361,17 +2381,17 @@
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Aivy</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>@ Store w/ Sarah</t>
+          <t>Driver, Equip</t>
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
@@ -2401,7 +2421,11 @@
           <t>Anisha</t>
         </is>
       </c>
-      <c r="O35" t="inlineStr"/>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
@@ -2414,7 +2438,7 @@
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
-          <t>PICK #430 +RX, WEST BEND - MAIN ST</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
@@ -2428,15 +2452,19 @@
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr"/>
+          <t>Aivy</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>@ Store w/ Sarah</t>
+        </is>
+      </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
@@ -2451,7 +2479,8 @@
       <c r="K36" t="inlineStr">
         <is>
           <t>Driver,
-Silver Van</t>
+Silver Van,
+Trainer</t>
         </is>
       </c>
       <c r="L36" t="inlineStr"/>
@@ -2484,7 +2513,7 @@
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr">
         <is>
-          <t>1629 SOUTH MAIN STREET</t>
+          <t>PICK #430 +RX, WEST BEND - MAIN ST</t>
         </is>
       </c>
       <c r="W36" t="inlineStr"/>
@@ -2498,15 +2527,22 @@
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr"/>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+@ Store,
+Camry 3,
+until 9:00</t>
+        </is>
+      </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
@@ -2551,7 +2587,7 @@
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/ABtzAZ2uGxT2</t>
+          <t>1629 SOUTH MAIN STREET</t>
         </is>
       </c>
       <c r="W37" t="inlineStr"/>
@@ -2565,20 +2601,15 @@
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>Driver,
-Corolla</t>
-        </is>
-      </c>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
@@ -2624,7 +2655,7 @@
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr">
         <is>
-          <t>SET UP ON REG #1</t>
+          <t>https://goo.gl/maps/ABtzAZ2uGxT2</t>
         </is>
       </c>
       <c r="W38" t="inlineStr"/>
@@ -2636,9 +2667,22 @@
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Evelin</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Driver,
+Corolla</t>
+        </is>
+      </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
@@ -2647,10 +2691,15 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr"/>
+          <t>Jenny</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>2nd Financial,
+work w/ Ashley</t>
+        </is>
+      </c>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
@@ -2675,7 +2724,7 @@
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr">
         <is>
-          <t>*IL Meet is 4:15 am at IL Office</t>
+          <t>SET UP ON REG #1</t>
         </is>
       </c>
       <c r="W39" t="inlineStr"/>
@@ -2698,7 +2747,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
@@ -2724,7 +2773,11 @@
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>*IL Meet is 4:15 am at IL Office</t>
+        </is>
+      </c>
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
@@ -2735,11 +2788,7 @@
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
@@ -2749,7 +2798,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Keilah</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="K41" t="inlineStr"/>
@@ -2761,10 +2810,14 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr"/>
+          <t>Jenny</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>2nd Scan, work w/ Anisha</t>
+        </is>
+      </c>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
@@ -2782,21 +2835,9 @@
         </is>
       </c>
       <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V41" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="W41" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
     </row>
@@ -2808,7 +2849,7 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
@@ -2832,7 +2873,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
@@ -2850,25 +2891,24 @@
       <c r="S42" t="inlineStr">
         <is>
           <t>Driver,
-Optima</t>
+Optima,
+Trainer</t>
         </is>
       </c>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>Driver,
-Silver Van,
-Trainer</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="X42" t="inlineStr"/>
@@ -2882,7 +2922,7 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>CONDON OIL #115, OSHKOSH</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
@@ -2910,16 +2950,10 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Camry 3,
-Rx</t>
-        </is>
-      </c>
+          <t>Josh S</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
@@ -2935,17 +2969,19 @@
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>Bonnie</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t>3rd week, work w/ Ashley</t>
+          <t>Driver,
+Silver Van,
+Trainer</t>
         </is>
       </c>
       <c r="X43" t="inlineStr"/>
@@ -2959,7 +2995,7 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>4733 HWY 45 S</t>
+          <t>CONDON OIL #115, OSHKOSH</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
@@ -2987,10 +3023,16 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Keilah</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Camry 3,
+Rx</t>
+        </is>
+      </c>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3010,15 +3052,19 @@
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="W44" t="inlineStr"/>
+          <t>Bonnie</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>3rd week, work w/ Ashley</t>
+        </is>
+      </c>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
     </row>
@@ -3030,7 +3076,7 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/ogWshZHQaJA2</t>
+          <t>4733 HWY 45 S</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -3042,12 +3088,13 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Nataun</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+2nd Financial, work w/ Anisha</t>
         </is>
       </c>
       <c r="L45" t="inlineStr"/>
@@ -3081,19 +3128,15 @@
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="W45" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
     </row>
@@ -3105,7 +3148,7 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>https://goo.gl/maps/ogWshZHQaJA2</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -3117,7 +3160,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3157,17 +3200,18 @@
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>Curt</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="W46" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="X46" t="inlineStr"/>
@@ -3181,7 +3225,7 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
@@ -3193,7 +3237,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3238,12 +3282,12 @@
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Curt</t>
         </is>
       </c>
       <c r="W47" t="inlineStr">
@@ -3262,14 +3306,26 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>CONDON OIL #125, OSHKOSH</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
@@ -3301,18 +3357,17 @@
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="W48" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X48" t="inlineStr"/>
@@ -3326,7 +3381,7 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>415 W MURDOCK</t>
+          <t>CONDON OIL #125, OSHKOSH</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
@@ -3358,29 +3413,30 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Nataun</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+2nd Scan work w/ Nate</t>
         </is>
       </c>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="W49" t="inlineStr">
         <is>
           <t>@ Store,
-Supv Rx</t>
+Rx</t>
         </is>
       </c>
       <c r="X49" t="inlineStr"/>
@@ -3394,17 +3450,13 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/MN9h4JXUjeC2</t>
+          <t>415 W MURDOCK</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
@@ -3425,23 +3477,36 @@
         </is>
       </c>
       <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="W50" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="X50" t="inlineStr"/>
@@ -3453,13 +3518,17 @@
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/MN9h4JXUjeC2</t>
+        </is>
+      </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
@@ -3486,12 +3555,12 @@
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="W51" t="inlineStr">
@@ -3507,26 +3576,14 @@
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Michelle</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
         <is>
-          <t>FESTIVAL #2708, OSHKOSH - LIFO</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K52" t="inlineStr"/>
@@ -3548,21 +3605,17 @@
       </c>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="R52" t="inlineStr"/>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="W52" t="inlineStr">
@@ -3580,24 +3633,24 @@
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t xml:space="preserve">@ Store  </t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr">
         <is>
-          <t>2415 WESTOWNE AVE</t>
+          <t>FESTIVAL #2708, OSHKOSH - LIFO</t>
         </is>
       </c>
       <c r="K53" t="inlineStr"/>
@@ -3614,26 +3667,27 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Until 12:00</t>
         </is>
       </c>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
         <is>
-          <t>MODAS</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="W53" t="inlineStr">
@@ -3649,14 +3703,26 @@
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">@ Store  </t>
+        </is>
+      </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/SYenrFArvdC2</t>
+          <t>2415 WESTOWNE AVE</t>
         </is>
       </c>
       <c r="K54" t="inlineStr"/>
@@ -3680,24 +3746,25 @@
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr">
         <is>
-          <t>KELLEY #80, SANDY HOLLOW MOBIL, ROCKFORD</t>
+          <t>MODAS</t>
         </is>
       </c>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>Robyn</t>
+          <t>Nataun</t>
         </is>
       </c>
       <c r="W54" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+3rd Scan work w/ Carlie</t>
         </is>
       </c>
       <c r="X54" t="inlineStr"/>
@@ -3713,7 +3780,11 @@
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/SYenrFArvdC2</t>
+        </is>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
@@ -3735,19 +3806,19 @@
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
-          <t>1621 SANDY HOLLOW RD</t>
+          <t>KELLEY #80, SANDY HOLLOW MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="W55" t="inlineStr">
@@ -3764,28 +3835,12 @@
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t xml:space="preserve">6:30 AM START </t>
-        </is>
-      </c>
+      <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
@@ -3806,14 +3861,26 @@
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/fDZakniRj1n</t>
+          <t>1621 SANDY HOLLOW RD</t>
         </is>
       </c>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr"/>
-      <c r="V56" t="inlineStr"/>
-      <c r="W56" t="inlineStr"/>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>Robyn</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
     </row>
@@ -3825,24 +3892,24 @@
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>MODAS</t>
+          <t xml:space="preserve">6:30 AM START </t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="L57" t="inlineStr"/>
@@ -3863,12 +3930,28 @@
       </c>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/fDZakniRj1n</t>
+        </is>
+      </c>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
-      <c r="U57" t="inlineStr"/>
-      <c r="V57" t="inlineStr"/>
-      <c r="W57" t="inlineStr"/>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr"/>
     </row>
@@ -3880,19 +3963,19 @@
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>KELLEY #73, POLO RD MOBIL, STERLING</t>
+          <t>MODAS</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -3919,28 +4002,12 @@
         </is>
       </c>
       <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R58" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
-      <c r="V58" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="V58" t="inlineStr"/>
       <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
@@ -3953,19 +4020,19 @@
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
-          <t>4002 LINCOLNWAY</t>
+          <t>KELLEY #73, POLO RD MOBIL, STERLING</t>
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -3980,20 +4047,24 @@
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="S59" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr">
         <is>
-          <t>MODAS</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="W59" t="inlineStr"/>
@@ -4008,19 +4079,19 @@
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/Kxx3oPMedio</t>
+          <t>4002 LINCOLNWAY</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -4035,12 +4106,12 @@
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="S60" t="inlineStr"/>
@@ -4048,7 +4119,7 @@
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr">
         <is>
-          <t>KELLEY #43, BYRON MOBIL</t>
+          <t>MODAS</t>
         </is>
       </c>
       <c r="W60" t="inlineStr"/>
@@ -4063,19 +4134,19 @@
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
-          <t>*IL Meet is 5:15 am at IL Office</t>
+          <t>https://goo.gl/maps/Kxx3oPMedio</t>
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -4094,24 +4165,20 @@
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Spencer P</t>
-        </is>
-      </c>
-      <c r="S61" t="inlineStr">
-        <is>
-          <t>Until 8:15</t>
-        </is>
-      </c>
+          <t>Laci</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr">
         <is>
-          <t>100 S UNION</t>
+          <t>KELLEY #43, BYRON MOBIL</t>
         </is>
       </c>
       <c r="W61" t="inlineStr"/>
@@ -4124,17 +4191,21 @@
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>*IL Meet is 5:15 am at IL Office</t>
+        </is>
+      </c>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -4153,20 +4224,24 @@
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="S62" t="inlineStr"/>
+          <t>Spencer P</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>Until 8:15</t>
+        </is>
+      </c>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/XQfApdUHTqz</t>
+          <t>100 S UNION</t>
         </is>
       </c>
       <c r="W62" t="inlineStr"/>
@@ -4178,30 +4253,18 @@
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -4214,12 +4277,24 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
-      <c r="V63" t="inlineStr"/>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/XQfApdUHTqz</t>
+        </is>
+      </c>
       <c r="W63" t="inlineStr"/>
       <c r="X63" t="inlineStr"/>
       <c r="Y63" t="inlineStr"/>
@@ -4231,28 +4306,28 @@
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Keilah</t>
+          <t>Mike G</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>work w/ Taylor</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -4269,21 +4344,9 @@
       <c r="R64" t="inlineStr"/>
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
-      <c r="U64" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V64" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="W64" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr"/>
+      <c r="W64" t="inlineStr"/>
       <c r="X64" t="inlineStr"/>
       <c r="Y64" t="inlineStr"/>
     </row>
@@ -4294,29 +4357,24 @@
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>Driver,
-Gray Van</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -4335,15 +4393,19 @@
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="W65" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="X65" t="inlineStr"/>
       <c r="Y65" t="inlineStr"/>
     </row>
@@ -4354,24 +4416,29 @@
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr"/>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Driver,
+Gray Van</t>
+        </is>
+      </c>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -4390,12 +4457,12 @@
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="W66" t="inlineStr"/>
@@ -4409,28 +4476,24 @@
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Serena</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -4449,12 +4512,12 @@
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>Tina E</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="W67" t="inlineStr"/>
@@ -4466,13 +4529,37 @@
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Serena</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr"/>
@@ -4482,8 +4569,16 @@
       <c r="R68" t="inlineStr"/>
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
-      <c r="U68" t="inlineStr"/>
-      <c r="V68" t="inlineStr"/>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
       <c r="W68" t="inlineStr"/>
       <c r="X68" t="inlineStr"/>
       <c r="Y68" t="inlineStr"/>
@@ -4525,11 +4620,7 @@
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
@@ -4558,7 +4649,7 @@
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
-          <t>MODAS</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="K71" t="inlineStr"/>
@@ -4589,7 +4680,7 @@
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr">
         <is>
-          <t>KELLEY #20, FOREST HILLS MOBIL, LOVES PARK</t>
+          <t>MODAS</t>
         </is>
       </c>
       <c r="K72" t="inlineStr"/>
@@ -4620,7 +4711,7 @@
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr">
         <is>
-          <t>5902 FOREST HILLS RD</t>
+          <t>KELLEY #20, FOREST HILLS MOBIL, LOVES PARK</t>
         </is>
       </c>
       <c r="K73" t="inlineStr"/>
@@ -4651,7 +4742,7 @@
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/4SWJvN8ZsuH2</t>
+          <t>5902 FOREST HILLS RD</t>
         </is>
       </c>
       <c r="K74" t="inlineStr"/>
@@ -4680,7 +4771,11 @@
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/4SWJvN8ZsuH2</t>
+        </is>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr"/>
@@ -4706,21 +4801,9 @@
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr"/>
@@ -4747,15 +4830,19 @@
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr"/>
@@ -4782,12 +4869,12 @@
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="K78" t="inlineStr"/>
@@ -4817,19 +4904,15 @@
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Spencer P</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>Until 8:15</t>
-        </is>
-      </c>
+          <t>Laci</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr"/>
@@ -4856,15 +4939,19 @@
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr"/>
+          <t>Spencer P</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>Until 8:15</t>
+        </is>
+      </c>
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr"/>
@@ -4891,12 +4978,12 @@
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Tina E</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="K81" t="inlineStr"/>
@@ -4924,8 +5011,16 @@
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr"/>
@@ -4979,11 +5074,7 @@
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr"/>
@@ -5012,7 +5103,7 @@
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="K85" t="inlineStr"/>
@@ -5031,6 +5122,37 @@
       <c r="X85" t="inlineStr"/>
       <c r="Y85" t="inlineStr"/>
     </row>
+    <row r="86">
+      <c r="A86" t="inlineStr"/>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr"/>
+      <c r="R86" t="inlineStr"/>
+      <c r="S86" t="inlineStr"/>
+      <c r="T86" t="inlineStr"/>
+      <c r="U86" t="inlineStr"/>
+      <c r="V86" t="inlineStr"/>
+      <c r="W86" t="inlineStr"/>
+      <c r="X86" t="inlineStr"/>
+      <c r="Y86" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/10-06-24 to 10-12-24 Madison Schedule.xlsx
+++ b/10-06-24 to 10-12-24 Madison Schedule.xlsx
@@ -780,7 +780,7 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>DANE COUNTY HIGHWAY PARTS, MADISON</t>
+          <t>DON'T NEED TO WEAR A BADGER SHIRT HERE, WORK IN TEAMS OF 2</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -788,7 +788,7 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>DHILLON'S STATION 60 LLC, GRAFTON</t>
+          <t>*SALE INVENTORY</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
@@ -831,7 +831,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2302 FISH HATCHERY RD</t>
+          <t>DANE COUNTY HIGHWAY PARTS, MADISON</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -839,7 +839,7 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>1185 N PORT WASHINGTON RD</t>
+          <t>DHILLON'S STATION 60 LLC, GRAFTON</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
@@ -882,7 +882,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/jQ1GffTEQFv</t>
+          <t>2302 FISH HATCHERY RD</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -890,7 +890,7 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/j6V8me3CPcLfC84u6</t>
+          <t>1185 N PORT WASHINGTON RD</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
@@ -933,7 +933,7 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>*IL Meet is 6:15 am at IL Office</t>
+          <t>https://goo.gl/maps/jQ1GffTEQFv</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -941,7 +941,7 @@
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>4:00 am meet for Sarah &amp; Aivy at Wayside Park</t>
+          <t>https://maps.app.goo.gl/j6V8me3CPcLfC84u6</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
@@ -976,7 +976,7 @@
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>6:45 am meet for Sarah &amp; Aivy at Wayside Park</t>
+          <t>*IL Meet is 6:15 am at IL Office</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
@@ -984,7 +984,7 @@
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
-          <t>*Extra machine bag here in case Cedarburg Dhillons is needed to help at all after their store (DJ is sup there)</t>
+          <t>4:00 am meet for Sarah &amp; Aivy at Wayside Park</t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
@@ -992,7 +992,7 @@
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
         <is>
-          <t>4:30 am meet for Sarah &amp; Aivy at WI Dells Walmart</t>
+          <t>4:30 am meet for Sarah, Aivy &amp; Lori at WI Dells Walmart</t>
         </is>
       </c>
       <c r="S14" t="inlineStr"/>
@@ -1043,7 +1043,7 @@
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>DON'T NEED TO WEAR A BADGER SHIRT HERE, WORK IN TEAMS OF 2</t>
+          <t>6:45 am meet for Sarah &amp; Aivy at Wayside Park</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
@@ -1051,7 +1051,7 @@
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
-          <t>*SALE INVENTORY</t>
+          <t>*Extra machine bag here in case Cedarburg Dhillons is needed to help at all after their store (DJ is sup there)</t>
         </is>
       </c>
       <c r="O15" t="inlineStr"/>
@@ -1306,11 +1306,7 @@
           <t>Angela</t>
         </is>
       </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>Trainer</t>
-        </is>
-      </c>
+      <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
@@ -1325,8 +1321,7 @@
       <c r="W18" t="inlineStr">
         <is>
           <t>Driver,
-Gray Van,
-Trainer</t>
+Gray Van</t>
         </is>
       </c>
       <c r="X18" t="inlineStr"/>
@@ -1411,11 +1406,7 @@
           <t>Anisha</t>
         </is>
       </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>Trainer</t>
-        </is>
-      </c>
+      <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
     </row>
@@ -1580,12 +1571,12 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Bonnie</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>3rd week, work w/ Angela</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T21" t="inlineStr"/>
@@ -1667,12 +1658,13 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver, 1/2
+Gray Van</t>
         </is>
       </c>
       <c r="T22" t="inlineStr"/>
@@ -1734,15 +1726,10 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Gray Van</t>
-        </is>
-      </c>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
@@ -1813,14 +1800,10 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Jenny</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>3rd Financial, work w/ Michael</t>
-        </is>
-      </c>
+          <t>Josh S</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
@@ -1829,14 +1812,10 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Jenny</t>
-        </is>
-      </c>
-      <c r="W24" t="inlineStr">
-        <is>
-          <t>4th Financial, work w/ Angela</t>
-        </is>
-      </c>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
     </row>
@@ -1868,10 +1847,15 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Gray Van</t>
+        </is>
+      </c>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
@@ -1880,7 +1864,7 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="W25" t="inlineStr"/>
@@ -1915,7 +1899,7 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Lorena</t>
         </is>
       </c>
       <c r="S26" t="inlineStr"/>
@@ -1927,7 +1911,7 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Lorena</t>
         </is>
       </c>
       <c r="W26" t="inlineStr"/>
@@ -1970,13 +1954,12 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Gray Van</t>
+          <t>@ WI Dells, Driver 1/2</t>
         </is>
       </c>
       <c r="T27" t="inlineStr"/>
@@ -1987,10 +1970,14 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>Lorena</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr"/>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
     </row>
@@ -2030,10 +2017,15 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Lorena</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr"/>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Silver Van</t>
+        </is>
+      </c>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
@@ -2042,14 +2034,10 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="W28" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Makeda</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
     </row>
@@ -2082,21 +2070,9 @@
       </c>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>@ WI Dells, Driver 1/2</t>
-        </is>
-      </c>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
         <is>
@@ -2105,10 +2081,14 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>Makeda</t>
-        </is>
-      </c>
-      <c r="W29" t="inlineStr"/>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Driver</t>
+        </is>
+      </c>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
     </row>
@@ -2141,33 +2121,13 @@
       </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>Makeda</t>
-        </is>
-      </c>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="W30" t="inlineStr">
-        <is>
-          <t>Driver</t>
-        </is>
-      </c>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
     </row>
@@ -2200,39 +2160,17 @@
       </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
+      <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Silver Van,
-Trainer</t>
-        </is>
-      </c>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>Seth</t>
-        </is>
-      </c>
-      <c r="W31" t="inlineStr">
-        <is>
-          <t>@ Store, 1st Festival, work w/ Anisha</t>
-        </is>
-      </c>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
     </row>
@@ -2262,11 +2200,19 @@
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>DC5-ITEM LEVEL</t>
+        </is>
+      </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
@@ -2306,11 +2252,19 @@
       </c>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>PICK #372, MILWAUKEE - BLUEMOUND</t>
+        </is>
+      </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>DC5-ITEM LEVEL</t>
+        </is>
+      </c>
       <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
@@ -2359,7 +2313,7 @@
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>8151 W BLUEMOUND ROAD</t>
         </is>
       </c>
       <c r="S34" t="inlineStr"/>
@@ -2367,7 +2321,7 @@
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>PICK #430 +RX, WEST BEND - MAIN ST</t>
         </is>
       </c>
       <c r="W34" t="inlineStr"/>
@@ -2430,7 +2384,7 @@
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>https://goo.gl/maps/QEWZBbHDpV42</t>
         </is>
       </c>
       <c r="S35" t="inlineStr"/>
@@ -2438,7 +2392,7 @@
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>1629 SOUTH MAIN STREET</t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
@@ -2505,7 +2459,7 @@
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>PICK #372, MILWAUKEE - BLUEMOUND</t>
+          <t>*IL Meet is 4:30 am at IL Office</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
@@ -2513,7 +2467,7 @@
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr">
         <is>
-          <t>PICK #430 +RX, WEST BEND - MAIN ST</t>
+          <t>https://goo.gl/maps/ABtzAZ2uGxT2</t>
         </is>
       </c>
       <c r="W36" t="inlineStr"/>
@@ -2577,17 +2531,13 @@
       </c>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>8151 W BLUEMOUND ROAD</t>
-        </is>
-      </c>
+      <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr">
         <is>
-          <t>1629 SOUTH MAIN STREET</t>
+          <t>SET UP ON REG #1</t>
         </is>
       </c>
       <c r="W37" t="inlineStr"/>
@@ -2644,18 +2594,26 @@
         </is>
       </c>
       <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/QEWZBbHDpV42</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/ABtzAZ2uGxT2</t>
+          <t>*IL Meet is 4:15 am at IL Office</t>
         </is>
       </c>
       <c r="W38" t="inlineStr"/>
@@ -2713,20 +2671,25 @@
       </c>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>*IL Meet is 4:30 am at IL Office</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr"/>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima</t>
+        </is>
+      </c>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>SET UP ON REG #1</t>
-        </is>
-      </c>
+      <c r="V39" t="inlineStr"/>
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
@@ -2768,17 +2731,33 @@
         </is>
       </c>
       <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr"/>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>*IL Meet is 4:15 am at IL Office</t>
-        </is>
-      </c>
-      <c r="W40" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
     </row>
@@ -2821,23 +2800,36 @@
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Curt</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
-      <c r="W41" t="inlineStr"/>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>Driver,
+Silver Van</t>
+        </is>
+      </c>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
     </row>
@@ -2880,35 +2872,33 @@
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>Driver,
-Optima,
-Trainer</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>1st Day, work w/ Ashley</t>
         </is>
       </c>
       <c r="X42" t="inlineStr"/>
@@ -2957,33 +2947,32 @@
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr"/>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>@ Store,
+Until 10:00</t>
+        </is>
+      </c>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="W43" t="inlineStr">
-        <is>
-          <t>Driver,
-Silver Van,
-Trainer</t>
-        </is>
-      </c>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
     </row>
@@ -3036,12 +3025,12 @@
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Curt</t>
+          <t>Justin Learned</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
@@ -3052,17 +3041,18 @@
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>Bonnie</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="W44" t="inlineStr">
         <is>
-          <t>3rd week, work w/ Ashley</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="X44" t="inlineStr"/>
@@ -3112,12 +3102,12 @@
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
@@ -3128,15 +3118,19 @@
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="W45" t="inlineStr"/>
+          <t>Curt</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
     </row>
@@ -3183,35 +3177,33 @@
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>@ Store,
-Until 10:00</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="W46" t="inlineStr">
         <is>
-          <t>@ Store,
-Trainer</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X46" t="inlineStr"/>
@@ -3264,35 +3256,24 @@
         </is>
       </c>
       <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>Justin Learned</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>Curt</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="W47" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="X47" t="inlineStr"/>
@@ -3339,35 +3320,24 @@
       </c>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="W48" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="X48" t="inlineStr"/>
@@ -3406,37 +3376,27 @@
         </is>
       </c>
       <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
+      <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Nataun</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>@ Store,
-2nd Scan work w/ Nate</t>
-        </is>
-      </c>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="W49" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X49" t="inlineStr"/>
@@ -3477,36 +3437,27 @@
         </is>
       </c>
       <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
+      <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>MODAS</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="W50" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X50" t="inlineStr"/>
@@ -3550,17 +3501,21 @@
       </c>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>KELLEY #80, SANDY HOLLOW MOBIL, ROCKFORD</t>
+        </is>
+      </c>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="W51" t="inlineStr">
@@ -3605,22 +3560,27 @@
       </c>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>1621 SANDY HOLLOW RD</t>
+        </is>
+      </c>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Nataun</t>
         </is>
       </c>
       <c r="W52" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+3rd Scan work w/ Carlie</t>
         </is>
       </c>
       <c r="X52" t="inlineStr"/>
@@ -3638,7 +3598,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -3675,19 +3635,19 @@
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>https://goo.gl/maps/fDZakniRj1n</t>
         </is>
       </c>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="W53" t="inlineStr">
@@ -3744,27 +3704,22 @@
       </c>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>MODAS</t>
-        </is>
-      </c>
+      <c r="R54" t="inlineStr"/>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>Nataun</t>
+          <t>Robyn</t>
         </is>
       </c>
       <c r="W54" t="inlineStr">
         <is>
-          <t>@ Store,
-3rd Scan work w/ Carlie</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X54" t="inlineStr"/>
@@ -3803,22 +3758,30 @@
         </is>
       </c>
       <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>KELLEY #80, SANDY HOLLOW MOBIL, ROCKFORD</t>
-        </is>
-      </c>
-      <c r="S55" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>16)</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="W55" t="inlineStr">
@@ -3858,29 +3821,21 @@
         </is>
       </c>
       <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>1621 SANDY HOLLOW RD</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="V56" t="inlineStr">
-        <is>
-          <t>Robyn</t>
-        </is>
-      </c>
-      <c r="W56" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
     </row>
@@ -3920,38 +3875,32 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+After Aurora
+If needed</t>
         </is>
       </c>
       <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/fDZakniRj1n</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
-      <c r="U57" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="V57" t="inlineStr">
-        <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="W57" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr"/>
     </row>
@@ -3984,30 +3933,32 @@
         </is>
       </c>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>26)</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>@ Store,
-After Aurora
-If needed</t>
-        </is>
-      </c>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>Spencer P</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>Until 8:15</t>
+        </is>
+      </c>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
-      <c r="V58" t="inlineStr"/>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
@@ -4032,7 +3983,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -4047,24 +3998,20 @@
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="S59" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS</t>
         </is>
       </c>
       <c r="W59" t="inlineStr"/>
@@ -4091,7 +4038,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -4101,25 +4048,21 @@
       </c>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>Emily L</t>
-        </is>
-      </c>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr">
         <is>
-          <t>MODAS</t>
+          <t>KELLEY #43, BYRON MOBIL</t>
         </is>
       </c>
       <c r="W60" t="inlineStr"/>
@@ -4146,7 +4089,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -4158,27 +4101,19 @@
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="R61" t="inlineStr">
-        <is>
-          <t>Laci</t>
-        </is>
-      </c>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr">
         <is>
-          <t>KELLEY #43, BYRON MOBIL</t>
+          <t>100 S UNION</t>
         </is>
       </c>
       <c r="W61" t="inlineStr"/>
@@ -4205,7 +4140,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -4215,33 +4150,17 @@
       </c>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
+      <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t>Spencer P</t>
-        </is>
-      </c>
-      <c r="S62" t="inlineStr">
-        <is>
-          <t>Until 8:15</t>
-        </is>
-      </c>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr">
         <is>
-          <t>100 S UNION</t>
+          <t>https://goo.gl/maps/XQfApdUHTqz</t>
         </is>
       </c>
       <c r="W62" t="inlineStr"/>
@@ -4264,7 +4183,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -4277,24 +4196,12 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="R63" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
-      <c r="V63" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/XQfApdUHTqz</t>
-        </is>
-      </c>
+      <c r="V63" t="inlineStr"/>
       <c r="W63" t="inlineStr"/>
       <c r="X63" t="inlineStr"/>
       <c r="Y63" t="inlineStr"/>
@@ -4344,9 +4251,21 @@
       <c r="R64" t="inlineStr"/>
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
-      <c r="U64" t="inlineStr"/>
-      <c r="V64" t="inlineStr"/>
-      <c r="W64" t="inlineStr"/>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="X64" t="inlineStr"/>
       <c r="Y64" t="inlineStr"/>
     </row>
@@ -4393,19 +4312,15 @@
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="W65" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr"/>
       <c r="X65" t="inlineStr"/>
       <c r="Y65" t="inlineStr"/>
     </row>
@@ -4457,12 +4372,12 @@
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="W66" t="inlineStr"/>
@@ -4512,12 +4427,12 @@
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="W67" t="inlineStr"/>
@@ -4569,16 +4484,8 @@
       <c r="R68" t="inlineStr"/>
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
-      <c r="U68" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="V68" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
+      <c r="U68" t="inlineStr"/>
+      <c r="V68" t="inlineStr"/>
       <c r="W68" t="inlineStr"/>
       <c r="X68" t="inlineStr"/>
       <c r="Y68" t="inlineStr"/>
